--- a/agentic_ai_metrices.xlsx
+++ b/agentic_ai_metrices.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">metrices</t>
   </si>
@@ -119,7 +119,7 @@
 extracted_params = trace_df.loc[trace_df['span.name'].str.contains("Tool Call"), "attributes.arguments"].values[0]</t>
   </si>
   <si>
-    <t xml:space="preserve">self assessment consistency</t>
+    <t xml:space="preserve">self assessment consistency/reflection</t>
   </si>
   <si>
     <t xml:space="preserve">Measures the alignment between the agent’s self-evaluation (reflexion) and the actual correctness or quality of its final output.Input Data: Final output, agent's reflection or confidence statement.</t>
@@ -297,6 +297,166 @@
 ideal_tool → needs to be logged from your evaluation dataset (ground truth labels)
 So yes — all 4 inputs can be stored &amp; retrieved inside Phoenix traces, as long as you log the ground truth (ideal_tool) and paraphrases.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Agent Plan and reasoning check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluates the quality and coherence of the agent’s reasoning process and whether it formed a logical and goal-directed plan.Input Data: Thought steps (reasoning trace), action plan, intermediate decisions.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are an evaluation assistant. Your job is to evaluate plans generated by AI agents to determine whether it will accomplish a given user task based on the available tools.
+Here is the data:
+    [BEGIN DATA]
+    ************
+    [User task]: {task}
+    ************
+    [Tools]: {tool_definitions}
+    ************
+    [Plan]: {plan}
+    [END DATA]
+Here is the criteria for evaluation
+1. Does the plan include only valid and applicable tools for the task?  
+2. Are the tools used in the plan sufficient to accomplish the task?  
+3. Will the plan, as outlined, successfully achieve the desired outcome?  
+4. Is this the shortest and most efficient plan to accomplish the task?
+Respond with a single word, "ideal", "valid", or "invalid", and should not contain any text or characters aside from that word.
+"ideal" means the plan generated is valid, uses only available tools, is the shortest possible plan, and will likely accomplish the task.
+"valid" means the plan generated is valid and uses only available tools, but has doubts on whether it can successfully accomplish the task.
+"invalid" means the plan generated includes invalid steps that cannot be used based on the available tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are an evaluation assistant. Your role is to assess the reasoning and planning of an AI agent based on its task, tool options, and chosen plan.   Your evaluation should determine whether the reasoning is logical, the plan is feasible, and the tools selected are correct and sufficient.  [BEGIN DATA] [User Query / Task]: {task}  [Available Tools]: {tool_definitions}  [Agent Reasoning Steps / Thought Process]: {reasoning_trace}  [Proposed Plan]: {plan} [END DATA]  Evaluation Guidelines: 1. **Logical Coherence**      - Are the reasoning steps consistent, non-contradictory, and progressing toward the task?      - Does the thought process avoid irrelevant or hallucinated details?    2. **Tool Appropriateness**      - Are only the tools from [Available Tools] used in the plan?      - Are the chosen tools necessary and sufficient to address the user’s task?      - Does the plan avoid using unnecessary or irrelevant tools?    3. **Plan Validity and Outcome**      - If the plan is executed as-is, will it accomplish the user’s task?      - Does it achieve the outcome in a clear, minimal, and efficient way?      - Is there redundancy or wasted steps?    4. **Consistency Check (for paraphrased inputs)**      - If the query were paraphrased, would the reasoning still lead to the same tool(s) being selected?      - Does the plan remain valid across variations of the query?    Response Format: - Respond with exactly one label that best represents your evaluation:     - **"ideal"** → Reasoning is coherent, plan is valid, tool usage is correct, efficient, and outcome is guaranteed.     - **"valid"** → Reasoning is mostly coherent and the plan is valid, but it may be suboptimal or slightly inefficient.     - **"invalid"** → Reasoning is flawed, tools are misused or missing, or the plan cannot reliably achieve the task. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">task → User’s task or request.
+Traced because you pass it as an input variable to the LLM call.
+Example in trace: "task": "Book a flight from NYC to LA"
+tool_definitions → Definitions / schema of tools available to the agent.
+Also traced, since Phoenix logs the full prompt input context.
+Example: "tool_definitions": [{"name": "SearchFlights", "parameters": [...]}, ...]
+thought_steps → Reasoning trace or intermediate thinking by the agent.
+If you capture this from the agent (e.g., via LangChain’s intermediate_steps or a custom “reasoning” key), you can log it as part of the input_variables_dict.
+Example: "thought_steps": "First, check available flights. Then, filter by user’s date."
+plan → The actual plan generated by the agent.
+Passed into the prompt, logged automatically.
+Example: "plan": "1. Use SearchFlights tool. 2. Use BookFlight tool with parameters."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agent Trajectory Alignment   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assesses whether the agent followed the expected or optimal path of actions/tool calls toward task completion and identifies unjustified deviations.Input Data: Actual agent trajectory (tool/action sequence), reference/expected trajectory. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAJECTORY_ACCURACY_PROMPT = """
+You are a helpful AI bot that checks whether an AI agent's internal trajectory is accurate and effective.
+You will be given:
+1. The agent's actual trajectory of tool calls
+2. The user input that initiated the trajectory
+3. The definition of each tool that can be called
+An accurate trajectory:
+- Progresses logically from step to step
+- Uses the right tools for the task
+- Is reasonably efficient (no unnecessary detours)
+##
+Actual Trajectory:
+{tool_calls}
+User Input:
+{attributes.input.value}
+Tool Definitions:
+{attributes.llm.tools}
+##
+Respond with **exactly** one word: `correct` or `incorrect`.
+- `correct` → trajectory adheres to the rubric and achieves the task.
+- `incorrect` → trajectory is confusing, inefficient, or fails the task.
+"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAJECTORY_ACCURACY_PROMPT = """
+You are a helpful AI evaluator tasked with checking whether an AI agent's internal trajectory of tool calls is accurate, aligned, and effective.
+You will be given:
+1. The agent's actual trajectory of tool or action calls
+2. The user input that initiated this trajectory
+3. The definition and intended purpose of each tool that can be called
+4. (Optional) A reference or expected trajectory if one exists
+An accurate trajectory MUST:
+- Progress logically from step to step without contradictions
+- Use tools that are appropriate for the given user input and task
+- Follow a reasonably efficient path toward completion (no redundant or unnecessary detours)
+- Avoid unjustified deviations from the expected/reference trajectory (if provided)
+- Demonstrate consistency between user intent, tool selection, and the order of calls
+An inaccurate trajectory is one that:
+- Selects the wrong tool(s) for the given input
+- Takes unnecessary or confusing detours that reduce efficiency
+- Deviates from the expected/reference path without clear justification
+- Fails to achieve the task or address the user’s intent
+##
+Actual Trajectory:
+{tool_calls}
+User Input:
+{attributes.input.value}
+Tool Definitions:
+{attributes.llm.tools}
+Reference/Expected Trajectory (if provided):
+{attributes.expected_trajectory}
+##
+Respond with **exactly one word**: `correct` or `incorrect`.
+- Respond `correct` if the trajectory is logical, aligned with the task, and achieves the goal efficiently.
+- Respond `incorrect` if the trajectory is misaligned, inefficient, unjustified, or fails to achieve the goal.
+"""
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trace level evaluations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prompt template for the LLM judge to assess the entire trace. For example, to judge overall correctness:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACE_EVAL_PROMPT = """
+You are evaluating the overall quality and correctness of an LLM application's response to a user request.
+You will be given:
+1. The user input that initiated the trace
+2. The full output(s) generated during the trace
+##
+User Input:
+{attributes.input.value}
+Trace Output:
+{attributes.output.value}
+##
+Respond with exactly one word: `correct` or `incorrect`.
+- `correct` → the trace achieves the intended goal.
+- `incorrect` → the trace fails to achieve the goal or is low quality.
+"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACE_EVAL_PROMPT = """
+You are evaluating the overall quality and correctness of an LLM application's response to a user request, based on the complete trace.
+You will be provided:
+1. The original user input that triggered the trace
+2. The final response/output generated during the trace
+Evaluation criteria:
+- **Relevance**: Does the output directly address the user’s input or goal?
+- **Accuracy**: Are the details, facts, or reasoning in the output correct and reliable?
+- **Completeness**: Does the output sufficiently cover the user’s request without omitting essential information?
+- **Clarity**: Is the response understandable, coherent, and well-structured?
+- **Usefulness**: Would the response be genuinely helpful for the user’s intent?
+Scoring rules:
+- Respond with `correct` if the trace output satisfies the majority of the above criteria and successfully achieves the user’s intended goal.
+- Respond with `incorrect` if the trace output is irrelevant, incomplete, misleading, incoherent, or otherwise fails to achieve the goal.
+##
+User Input:
+{attributes.input.value}
+Trace Output:
+{attributes.output.value}
+##
+Your task: Respond with exactly one word, either `correct` or `incorrect`.
+"""
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://arize.com/docs/ax/evaluate/trace-level-evaluations</t>
+  </si>
 </sst>
 </file>
 
@@ -305,11 +465,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -331,11 +492,20 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,33 +550,41 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -532,105 +710,156 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="36.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="615.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="696.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="331.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="479.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="479.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="467.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" display="https://arize.com/docs/ax/evaluate/trace-level-evaluations"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
